--- a/InputData/trans/ECpV/Embedded Carbon per Vehicle.xlsx
+++ b/InputData/trans/ECpV/Embedded Carbon per Vehicle.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dropbox (Energy Innovation)\EI-PlcyMdl\eps-1.5.0-us-wipP\InputData\trans\ECpV\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="480" yWindow="90" windowWidth="23955" windowHeight="13110"/>
   </bookViews>
@@ -13,12 +18,12 @@
     <sheet name="ECpV-psgr" sheetId="2" r:id="rId4"/>
     <sheet name="ECpV-frgt" sheetId="3" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="58">
   <si>
     <t>PE International</t>
   </si>
@@ -113,15 +118,9 @@
     <t>plugin hybrid vehicle</t>
   </si>
   <si>
-    <t>nonroad vehicle</t>
-  </si>
-  <si>
     <t>Notes</t>
   </si>
   <si>
-    <t>The unit is metric tons of CO2e.</t>
-  </si>
-  <si>
     <t>We estimate embedded carbon in vehicle types other than passenger LDVs by scaling the embedded carbon in</t>
   </si>
   <si>
@@ -174,16 +173,40 @@
   </si>
   <si>
     <t>See BNVP variable.</t>
+  </si>
+  <si>
+    <t>LPG vehicle</t>
+  </si>
+  <si>
+    <t>hydrogen vehicle</t>
+  </si>
+  <si>
+    <t>We don't have data for hydrogen fuel cell vehicles, so we assume</t>
+  </si>
+  <si>
+    <t>their embedded carbon is similar to that of PHEVs.</t>
+  </si>
+  <si>
+    <t>Embedded Carbon (metric tons CO2e/vehicle</t>
+  </si>
+  <si>
+    <t>This variable represents the GHG emissions associated with vehicle</t>
+  </si>
+  <si>
+    <t>production, reported in metric tons CO2e per vehicle.</t>
+  </si>
+  <si>
+    <t>Start Year</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="0.0"/>
+    <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -238,8 +261,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -249,6 +278,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -318,7 +359,7 @@
       <alignment horizontal="left"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -340,10 +381,23 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="1" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="8">
     <cellStyle name="Body: normal cell" xfId="2"/>
@@ -360,6 +414,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -408,7 +465,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -443,7 +500,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -652,7 +709,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B19"/>
+  <dimension ref="A1:B23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -701,47 +758,65 @@
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B10" s="12" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B11" s="5" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>33</v>
+      <c r="A14" s="14" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" s="14" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>35</v>
-      </c>
+      <c r="A16" s="4"/>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>37</v>
+        <v>34</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>53</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B7" r:id="rId1" display="http://www.lowcvp.org.uk/assets/reports/CONFERENCE 2013 Final Report_Lifecycle CO2 Assessment of Low Carbon Cars 2020-2030_PEJuly2013.pdf"/>
+    <hyperlink ref="B7" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId2"/>
@@ -913,7 +988,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M7"/>
+  <dimension ref="A1:M8"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -927,116 +1002,119 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B1" s="8" t="s">
+      <c r="A1" s="15" t="s">
+        <v>57</v>
+      </c>
+      <c r="B1" s="16" t="s">
+        <v>36</v>
+      </c>
+      <c r="C1" s="16" t="s">
+        <v>37</v>
+      </c>
+      <c r="D1" s="16" t="s">
         <v>38</v>
       </c>
-      <c r="C1" s="8" t="s">
+      <c r="E1" s="16" t="s">
         <v>39</v>
       </c>
-      <c r="D1" s="8" t="s">
+      <c r="F1" s="16" t="s">
         <v>40</v>
       </c>
-      <c r="E1" s="8" t="s">
+      <c r="G1" s="16" t="s">
         <v>41</v>
       </c>
-      <c r="F1" s="8" t="s">
+      <c r="H1" s="16" t="s">
         <v>42</v>
       </c>
-      <c r="G1" s="8" t="s">
+      <c r="I1" s="16" t="s">
         <v>43</v>
       </c>
-      <c r="H1" s="8" t="s">
+      <c r="J1" s="16" t="s">
         <v>44</v>
       </c>
-      <c r="I1" s="8" t="s">
+      <c r="K1" s="16" t="s">
         <v>45</v>
       </c>
-      <c r="J1" s="8" t="s">
+      <c r="L1" s="16" t="s">
         <v>46</v>
       </c>
-      <c r="K1" s="8" t="s">
+      <c r="M1" s="16" t="s">
         <v>47</v>
       </c>
-      <c r="L1" s="8" t="s">
-        <v>48</v>
-      </c>
-      <c r="M1" s="8" t="s">
-        <v>49</v>
-      </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+      <c r="A2" s="4" t="s">
         <v>26</v>
       </c>
       <c r="B2" s="10">
-        <v>66733.274166000003</v>
+        <v>50758.840541774327</v>
       </c>
       <c r="C2" s="10">
-        <v>63555.320858571446</v>
+        <v>80512.080109999981</v>
       </c>
       <c r="D2" s="10">
-        <v>777558.88623342291</v>
+        <v>703780</v>
       </c>
       <c r="E2" s="10">
-        <v>215046.42741217426</v>
-      </c>
-      <c r="F2">
-        <v>0</v>
-      </c>
-      <c r="G2">
-        <v>0</v>
-      </c>
-      <c r="H2">
-        <v>0</v>
-      </c>
-      <c r="I2">
-        <v>0</v>
-      </c>
-      <c r="J2">
-        <v>0</v>
-      </c>
-      <c r="K2">
-        <v>0</v>
+        <v>206127.38518562954</v>
+      </c>
+      <c r="F2" s="17">
+        <v>94933107.191416278</v>
+      </c>
+      <c r="G2" s="17">
+        <v>94933107.191416278</v>
+      </c>
+      <c r="H2" s="10">
+        <v>3660659.6603373885</v>
+      </c>
+      <c r="I2" s="10">
+        <v>3660659.6603373885</v>
+      </c>
+      <c r="J2" s="10">
+        <v>43927.915924048662</v>
+      </c>
+      <c r="K2" s="10">
+        <v>14642638.641349554</v>
       </c>
       <c r="L2" s="10">
-        <v>15992.05339289682</v>
+        <v>14759.423945652174</v>
       </c>
       <c r="M2">
         <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+      <c r="A3" s="4" t="s">
         <v>27</v>
       </c>
       <c r="B3" s="10">
-        <v>45171.020185999994</v>
+        <v>38287.706053517766</v>
       </c>
       <c r="C3" s="10">
-        <v>43848.481093999995</v>
+        <v>65223.591570561439</v>
       </c>
       <c r="D3" s="10">
-        <v>513514.64247010724</v>
+        <v>489601.85316835809</v>
       </c>
       <c r="E3" s="10">
-        <v>142020.7411196451</v>
-      </c>
-      <c r="F3">
-        <v>0</v>
-      </c>
-      <c r="G3">
-        <v>0</v>
-      </c>
-      <c r="H3">
-        <v>0</v>
-      </c>
-      <c r="I3">
-        <v>0</v>
-      </c>
-      <c r="J3">
-        <v>0</v>
-      </c>
-      <c r="K3">
+        <v>135407.27428151103</v>
+      </c>
+      <c r="F3" s="18">
+        <v>0</v>
+      </c>
+      <c r="G3" s="18">
+        <v>0</v>
+      </c>
+      <c r="H3" s="10">
+        <v>0</v>
+      </c>
+      <c r="I3" s="10">
+        <v>0</v>
+      </c>
+      <c r="J3" s="10">
+        <v>0</v>
+      </c>
+      <c r="K3" s="10">
         <v>0</v>
       </c>
       <c r="L3">
@@ -1047,14 +1125,14 @@
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+      <c r="A4" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="B4" s="10">
-        <v>37472.661407999993</v>
+      <c r="B4" s="19">
+        <v>30882.93891032293</v>
       </c>
       <c r="C4" s="10">
-        <v>35338.939199</v>
+        <v>58361.792809999999</v>
       </c>
       <c r="D4" s="10">
         <v>480637.41599999997</v>
@@ -1062,25 +1140,25 @@
       <c r="E4" s="10">
         <v>132928.01486984815</v>
       </c>
-      <c r="F4">
-        <v>0</v>
-      </c>
-      <c r="G4">
-        <v>0</v>
-      </c>
-      <c r="H4">
-        <v>0</v>
-      </c>
-      <c r="I4">
-        <v>0</v>
-      </c>
-      <c r="J4">
-        <v>0</v>
-      </c>
-      <c r="K4">
-        <v>0</v>
-      </c>
-      <c r="L4" s="10">
+      <c r="F4" s="18">
+        <v>0</v>
+      </c>
+      <c r="G4" s="18">
+        <v>0</v>
+      </c>
+      <c r="H4" s="10">
+        <v>0</v>
+      </c>
+      <c r="I4" s="10">
+        <v>0</v>
+      </c>
+      <c r="J4" s="10">
+        <v>30000</v>
+      </c>
+      <c r="K4" s="10">
+        <v>0</v>
+      </c>
+      <c r="L4" s="19">
         <v>8980</v>
       </c>
       <c r="M4">
@@ -1088,38 +1166,38 @@
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+      <c r="A5" s="4" t="s">
         <v>29</v>
       </c>
       <c r="B5" s="10">
-        <v>41250.262873</v>
+        <v>32733.505566166878</v>
       </c>
       <c r="C5" s="10">
-        <v>41041.128928999999</v>
+        <v>64029.370624000003</v>
       </c>
       <c r="D5" s="10">
         <v>480637.41599999997</v>
       </c>
-      <c r="E5" s="10">
+      <c r="E5" s="19">
         <v>132928.01486984815</v>
       </c>
-      <c r="F5">
-        <v>0</v>
-      </c>
-      <c r="G5">
-        <v>0</v>
-      </c>
-      <c r="H5">
-        <v>0</v>
-      </c>
-      <c r="I5">
-        <v>0</v>
-      </c>
-      <c r="J5">
-        <v>0</v>
-      </c>
-      <c r="K5">
-        <v>0</v>
+      <c r="F5" s="17">
+        <v>64833333.333333336</v>
+      </c>
+      <c r="G5" s="17">
+        <v>64833333.333333336</v>
+      </c>
+      <c r="H5" s="10">
+        <v>2500000</v>
+      </c>
+      <c r="I5" s="10">
+        <v>2500000</v>
+      </c>
+      <c r="J5" s="10">
+        <v>30000</v>
+      </c>
+      <c r="K5" s="10">
+        <v>10000000</v>
       </c>
       <c r="L5">
         <v>0</v>
@@ -1129,37 +1207,37 @@
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+      <c r="A6" s="4" t="s">
         <v>30</v>
       </c>
       <c r="B6" s="10">
-        <v>56853.790958999998</v>
+        <v>38021.991142086437</v>
       </c>
       <c r="C6" s="10">
-        <v>51017.118906285701</v>
+        <v>54775.354912666604</v>
       </c>
       <c r="D6" s="10">
-        <v>662445.69787272683</v>
+        <v>558290.08404758247</v>
       </c>
       <c r="E6" s="10">
-        <v>183210.02203726224</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
-      </c>
-      <c r="G6">
-        <v>0</v>
-      </c>
-      <c r="H6">
-        <v>0</v>
-      </c>
-      <c r="I6">
-        <v>0</v>
-      </c>
-      <c r="J6">
-        <v>0</v>
-      </c>
-      <c r="K6">
+        <v>154404.11029915701</v>
+      </c>
+      <c r="F6" s="18">
+        <v>0</v>
+      </c>
+      <c r="G6" s="18">
+        <v>0</v>
+      </c>
+      <c r="H6" s="10">
+        <v>0</v>
+      </c>
+      <c r="I6" s="10">
+        <v>0</v>
+      </c>
+      <c r="J6" s="10">
+        <v>0</v>
+      </c>
+      <c r="K6" s="10">
         <v>0</v>
       </c>
       <c r="L6">
@@ -1170,43 +1248,84 @@
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>31</v>
-      </c>
-      <c r="B7">
-        <v>0</v>
-      </c>
-      <c r="C7">
-        <v>0</v>
-      </c>
-      <c r="D7">
-        <v>0</v>
-      </c>
-      <c r="E7">
-        <v>0</v>
-      </c>
-      <c r="F7" s="10">
-        <v>64833333.333333336</v>
-      </c>
-      <c r="G7" s="10">
-        <v>64833333.333333336</v>
+      <c r="A7" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="B7" s="10">
+        <v>39464.208493999999</v>
+      </c>
+      <c r="C7" s="10">
+        <v>72501.771649563496</v>
+      </c>
+      <c r="D7" s="10">
+        <v>614189.4477763311</v>
+      </c>
+      <c r="E7" s="10">
+        <v>150517.12184581585</v>
+      </c>
+      <c r="F7" s="18">
+        <v>0</v>
+      </c>
+      <c r="G7" s="18">
+        <v>0</v>
       </c>
       <c r="H7" s="10">
-        <v>2500000</v>
+        <v>0</v>
       </c>
       <c r="I7" s="10">
-        <v>2500000</v>
+        <v>0</v>
       </c>
       <c r="J7" s="10">
-        <v>30000</v>
+        <v>0</v>
       </c>
       <c r="K7" s="10">
-        <v>10000000</v>
+        <v>0</v>
       </c>
       <c r="L7">
         <v>0</v>
       </c>
       <c r="M7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A8" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="B8" s="10">
+        <v>71671.802858802301</v>
+      </c>
+      <c r="C8" s="10">
+        <v>82293.84992932812</v>
+      </c>
+      <c r="D8" s="10">
+        <v>1115442.7441684157</v>
+      </c>
+      <c r="E8" s="10">
+        <v>170845.9414873973</v>
+      </c>
+      <c r="F8" s="17">
+        <v>150462425.18688756</v>
+      </c>
+      <c r="G8" s="17">
+        <v>150462425.18688756</v>
+      </c>
+      <c r="H8" s="10">
+        <v>5801893.0020650728</v>
+      </c>
+      <c r="I8" s="10">
+        <v>5801893.0020650728</v>
+      </c>
+      <c r="J8" s="10">
+        <v>69622.716024780879</v>
+      </c>
+      <c r="K8" s="10">
+        <v>23207572.008260291</v>
+      </c>
+      <c r="L8">
+        <v>0</v>
+      </c>
+      <c r="M8">
         <v>0</v>
       </c>
     </row>
@@ -1220,20 +1339,23 @@
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
-  <dimension ref="A1:G7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.42578125" customWidth="1"/>
+    <col min="1" max="1" width="20.7109375" customWidth="1"/>
     <col min="2" max="3" width="24.28515625" customWidth="1"/>
     <col min="4" max="4" width="18.7109375" customWidth="1"/>
     <col min="5" max="5" width="17.7109375" customWidth="1"/>
-    <col min="6" max="7" width="24.28515625" customWidth="1"/>
+    <col min="6" max="8" width="24.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="A1" s="13" t="s">
+        <v>54</v>
+      </c>
       <c r="B1" s="8" t="s">
         <v>26</v>
       </c>
@@ -1250,10 +1372,13 @@
         <v>30</v>
       </c>
       <c r="G1" s="8" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+        <v>50</v>
+      </c>
+      <c r="H1" s="8" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>20</v>
       </c>
@@ -1277,124 +1402,155 @@
         <f>SUM('PE 8-8'!B5:C5)</f>
         <v>8.01</v>
       </c>
-      <c r="G2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G2" s="9">
+        <f>SUM('PE 8-8'!B3:C3)</f>
+        <v>6.4399999999999995</v>
+      </c>
+      <c r="H2" s="9">
+        <f>F2</f>
+        <v>8.01</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>21</v>
       </c>
       <c r="B3" s="9">
         <f>B2*('Data from BNVP'!D2/'Data from BNVP'!B2)</f>
-        <v>127.70309114340176</v>
+        <v>151.96227332363668</v>
       </c>
       <c r="C3" s="9">
         <f>C2*('Data from BNVP'!D3/'Data from BNVP'!B3)</f>
-        <v>73.211414838322611</v>
+        <v>82.351131979465606</v>
       </c>
       <c r="D3" s="9">
         <f>D2*('Data from BNVP'!D4/'Data from BNVP'!B4)</f>
-        <v>82.60168460784017</v>
+        <v>100.22702075175117</v>
       </c>
       <c r="E3" s="9">
         <f>E2*('Data from BNVP'!D5/'Data from BNVP'!B5)</f>
-        <v>75.037217788641158</v>
+        <v>94.560753744606117</v>
       </c>
       <c r="F3" s="9">
         <f>F2*('Data from BNVP'!D6/'Data from BNVP'!B6)</f>
-        <v>93.330452560095608</v>
-      </c>
-      <c r="G3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+        <v>117.61360830656756</v>
+      </c>
+      <c r="G3" s="9">
+        <f>G2*('Data from BNVP'!D7/'Data from BNVP'!B7)</f>
+        <v>100.22702075175116</v>
+      </c>
+      <c r="H3" s="9">
+        <f>F3</f>
+        <v>117.61360830656756</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>22</v>
       </c>
-      <c r="B4">
-        <v>0</v>
-      </c>
-      <c r="C4">
-        <v>0</v>
-      </c>
-      <c r="D4">
-        <v>0</v>
-      </c>
-      <c r="E4">
-        <v>0</v>
+      <c r="B4" s="9">
+        <f t="shared" ref="B4:D5" si="0">$E4</f>
+        <v>13519.654585953418</v>
+      </c>
+      <c r="C4" s="9">
+        <f t="shared" si="0"/>
+        <v>13519.654585953418</v>
+      </c>
+      <c r="D4" s="9">
+        <f t="shared" si="0"/>
+        <v>13519.654585953418</v>
+      </c>
+      <c r="E4" s="9">
+        <f>D2*('Data from BNVP'!F5/'Data from BNVP'!B4)</f>
+        <v>13519.654585953418</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
-      <c r="G4" s="9">
-        <f>D2*('Data from BNVP'!F7/'Data from BNVP'!B4)</f>
-        <v>11142.167408945483</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G4">
+        <v>0</v>
+      </c>
+      <c r="H4" s="9">
+        <f>$E4</f>
+        <v>13519.654585953418</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>23</v>
       </c>
-      <c r="B5">
-        <v>0</v>
-      </c>
-      <c r="C5">
-        <v>0</v>
-      </c>
-      <c r="D5">
-        <v>0</v>
-      </c>
-      <c r="E5">
-        <v>0</v>
+      <c r="B5" s="9">
+        <f t="shared" si="0"/>
+        <v>521.32344161774108</v>
+      </c>
+      <c r="C5" s="9">
+        <f t="shared" si="0"/>
+        <v>521.32344161774108</v>
+      </c>
+      <c r="D5" s="9">
+        <f t="shared" si="0"/>
+        <v>521.32344161774108</v>
+      </c>
+      <c r="E5" s="9">
+        <f>D2*('Data from BNVP'!H5/'Data from BNVP'!B4)</f>
+        <v>521.32344161774108</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
-      <c r="G5" s="9">
-        <f>D2*('Data from BNVP'!H7/'Data from BNVP'!B4)</f>
-        <v>429.64655818555843</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5" s="9">
+        <f>$E5</f>
+        <v>521.32344161774108</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>24</v>
       </c>
-      <c r="B6">
-        <v>0</v>
-      </c>
-      <c r="C6">
-        <v>0</v>
-      </c>
-      <c r="D6">
-        <v>0</v>
-      </c>
-      <c r="E6">
-        <v>0</v>
+      <c r="B6" s="9">
+        <f t="shared" ref="B6:D6" si="1">$E6</f>
+        <v>6.2558812994128923</v>
+      </c>
+      <c r="C6" s="9">
+        <f t="shared" si="1"/>
+        <v>6.2558812994128923</v>
+      </c>
+      <c r="D6" s="9">
+        <f t="shared" si="1"/>
+        <v>6.2558812994128923</v>
+      </c>
+      <c r="E6" s="9">
+        <f>D2*('Data from BNVP'!J5/'Data from BNVP'!B4)</f>
+        <v>6.2558812994128923</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
-      <c r="G6" s="9">
-        <f>D2*('Data from BNVP'!J7/'Data from BNVP'!B4)</f>
-        <v>5.155758698226701</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G6">
+        <v>0</v>
+      </c>
+      <c r="H6" s="9">
+        <f>$E6</f>
+        <v>6.2558812994128923</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>25</v>
       </c>
       <c r="B7" s="9">
         <f>B2*('Data from BNVP'!L2/'Data from BNVP'!B2)</f>
-        <v>2.6264694393707586</v>
+        <v>3.1868987691162349</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7" s="9">
         <f>D2*('Data from BNVP'!L4/'Data from BNVP'!B4)</f>
-        <v>1.543290437002526</v>
+        <v>1.8725938022909256</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -1403,6 +1559,9 @@
         <v>0</v>
       </c>
       <c r="G7">
+        <v>0</v>
+      </c>
+      <c r="H7">
         <v>0</v>
       </c>
     </row>
@@ -1416,20 +1575,23 @@
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
-  <dimension ref="A1:G7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.42578125" customWidth="1"/>
+    <col min="1" max="1" width="20.7109375" customWidth="1"/>
     <col min="2" max="3" width="24.28515625" customWidth="1"/>
     <col min="4" max="4" width="18.7109375" customWidth="1"/>
     <col min="5" max="5" width="17.7109375" customWidth="1"/>
-    <col min="6" max="7" width="24.28515625" customWidth="1"/>
+    <col min="6" max="8" width="24.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="A1" s="13" t="s">
+        <v>54</v>
+      </c>
       <c r="B1" s="8" t="s">
         <v>26</v>
       </c>
@@ -1446,138 +1608,172 @@
         <v>30</v>
       </c>
       <c r="G1" s="8" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+        <v>50</v>
+      </c>
+      <c r="H1" s="8" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>20</v>
       </c>
       <c r="B2" s="9">
         <f>'ECpV-psgr'!B2*('Data from BNVP'!C2/'Data from BNVP'!B2)</f>
-        <v>10.438065947089965</v>
+        <v>17.384408087087369</v>
       </c>
       <c r="C2" s="9">
         <f>'ECpV-psgr'!C2*('Data from BNVP'!C3/'Data from BNVP'!B3)</f>
-        <v>6.2514465487516313</v>
+        <v>10.970621460771049</v>
       </c>
       <c r="D2" s="9">
         <f>'ECpV-psgr'!D2*('Data from BNVP'!C4/'Data from BNVP'!B4)</f>
-        <v>6.0733014387116269</v>
+        <v>12.170148274676293</v>
       </c>
       <c r="E2" s="9">
         <f>'ECpV-psgr'!E2*('Data from BNVP'!C5/'Data from BNVP'!B5)</f>
-        <v>6.4073499632352258</v>
+        <v>12.597158162148119</v>
       </c>
       <c r="F2" s="9">
         <f>'ECpV-psgr'!F2*('Data from BNVP'!C6/'Data from BNVP'!B6)</f>
-        <v>7.1876846828744201</v>
-      </c>
-      <c r="G2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+        <v>11.539390223170289</v>
+      </c>
+      <c r="G2" s="9">
+        <f>'ECpV-psgr'!G2*('Data from BNVP'!C7/'Data from BNVP'!B7)</f>
+        <v>11.831262484186816</v>
+      </c>
+      <c r="H2" s="9">
+        <f>F2</f>
+        <v>11.539390223170289</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>21</v>
       </c>
       <c r="B3" s="9">
         <f>'ECpV-psgr'!B2*('Data from BNVP'!E2/'Data from BNVP'!B2)</f>
-        <v>35.318345666280131</v>
+        <v>44.507638817620816</v>
       </c>
       <c r="C3" s="9">
         <f>'ECpV-psgr'!C2*('Data from BNVP'!E3/'Data from BNVP'!B3)</f>
-        <v>20.24779535738676</v>
+        <v>22.775531267243728</v>
       </c>
       <c r="D3" s="9">
         <f>'ECpV-psgr'!D2*('Data from BNVP'!E4/'Data from BNVP'!B4)</f>
-        <v>22.844825630107596</v>
+        <v>27.719396079745398</v>
       </c>
       <c r="E3" s="9">
         <f>'ECpV-psgr'!E2*('Data from BNVP'!E5/'Data from BNVP'!B5)</f>
-        <v>20.752750555733943</v>
+        <v>26.152298721302735</v>
       </c>
       <c r="F3" s="9">
         <f>'ECpV-psgr'!F2*('Data from BNVP'!E6/'Data from BNVP'!B6)</f>
-        <v>25.812039122892688</v>
-      </c>
-      <c r="G3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+        <v>32.527936763607912</v>
+      </c>
+      <c r="G3" s="9">
+        <f>'ECpV-psgr'!G2*('Data from BNVP'!E7/'Data from BNVP'!B7)</f>
+        <v>24.562262913100806</v>
+      </c>
+      <c r="H3" s="9">
+        <f>F3</f>
+        <v>32.527936763607912</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>22</v>
       </c>
-      <c r="B4">
-        <v>0</v>
-      </c>
-      <c r="C4">
-        <v>0</v>
-      </c>
-      <c r="D4">
-        <v>0</v>
-      </c>
-      <c r="E4">
-        <v>0</v>
+      <c r="B4" s="9">
+        <f t="shared" ref="B4:D6" si="0">$E4</f>
+        <v>13519.654585953418</v>
+      </c>
+      <c r="C4" s="9">
+        <f t="shared" si="0"/>
+        <v>13519.654585953418</v>
+      </c>
+      <c r="D4" s="9">
+        <f t="shared" si="0"/>
+        <v>13519.654585953418</v>
+      </c>
+      <c r="E4" s="9">
+        <f>'ECpV-psgr'!D2*('Data from BNVP'!G5/'Data from BNVP'!B4)</f>
+        <v>13519.654585953418</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
-      <c r="G4" s="9">
-        <f>'ECpV-psgr'!D2*('Data from BNVP'!G7/'Data from BNVP'!B4)</f>
-        <v>11142.167408945483</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G4">
+        <v>0</v>
+      </c>
+      <c r="H4" s="9">
+        <f>$E4</f>
+        <v>13519.654585953418</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>23</v>
       </c>
-      <c r="B5">
-        <v>0</v>
-      </c>
-      <c r="C5">
-        <v>0</v>
-      </c>
-      <c r="D5">
-        <v>0</v>
-      </c>
-      <c r="E5">
-        <v>0</v>
+      <c r="B5" s="9">
+        <f t="shared" si="0"/>
+        <v>521.32344161774108</v>
+      </c>
+      <c r="C5" s="9">
+        <f t="shared" si="0"/>
+        <v>521.32344161774108</v>
+      </c>
+      <c r="D5" s="9">
+        <f t="shared" si="0"/>
+        <v>521.32344161774108</v>
+      </c>
+      <c r="E5" s="9">
+        <f>'ECpV-psgr'!D2*('Data from BNVP'!I5/'Data from BNVP'!B4)</f>
+        <v>521.32344161774108</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
-      <c r="G5" s="9">
-        <f>'ECpV-psgr'!D2*('Data from BNVP'!I7/'Data from BNVP'!B4)</f>
-        <v>429.64655818555843</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5" s="9">
+        <f>$E5</f>
+        <v>521.32344161774108</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>24</v>
       </c>
-      <c r="B6">
-        <v>0</v>
-      </c>
-      <c r="C6">
-        <v>0</v>
-      </c>
-      <c r="D6">
-        <v>0</v>
-      </c>
-      <c r="E6">
-        <v>0</v>
+      <c r="B6" s="9">
+        <f t="shared" si="0"/>
+        <v>2085.2937664709643</v>
+      </c>
+      <c r="C6" s="9">
+        <f t="shared" si="0"/>
+        <v>2085.2937664709643</v>
+      </c>
+      <c r="D6" s="9">
+        <f t="shared" si="0"/>
+        <v>2085.2937664709643</v>
+      </c>
+      <c r="E6" s="9">
+        <f>'ECpV-psgr'!D2*('Data from BNVP'!K5/'Data from BNVP'!B4)</f>
+        <v>2085.2937664709643</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
-      <c r="G6" s="9">
-        <f>'ECpV-psgr'!D2*('Data from BNVP'!K7/'Data from BNVP'!B4)</f>
-        <v>1718.5862327422337</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G6">
+        <v>0</v>
+      </c>
+      <c r="H6" s="9">
+        <f>$E6</f>
+        <v>2085.2937664709643</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>25</v>
       </c>
@@ -1597,6 +1793,9 @@
         <v>0</v>
       </c>
       <c r="G7">
+        <v>0</v>
+      </c>
+      <c r="H7">
         <v>0</v>
       </c>
     </row>
